--- a/data/data_test.xlsx
+++ b/data/data_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Chat_AI\v1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB8C7719-E19C-4106-8DAA-B80905455205}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A315B625-195B-40FA-ABBE-80E9C44C4C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data_test" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
   <si>
     <t>Question</t>
   </si>
@@ -28,70 +28,157 @@
     <t>Answer</t>
   </si>
   <si>
-    <t>A Minh</t>
-  </si>
-  <si>
-    <t>WGHN</t>
-  </si>
-  <si>
     <t>wgroup</t>
   </si>
   <si>
-    <t>A Minh là ai?</t>
-  </si>
-  <si>
-    <t>A Minh ở đâu?</t>
-  </si>
-  <si>
-    <t>A Minh siu cấp vippro</t>
-  </si>
-  <si>
-    <t>A Minh quê ở đâu</t>
-  </si>
-  <si>
-    <t>A minh đi xe gì</t>
-  </si>
-  <si>
-    <t>a minh là đâu</t>
-  </si>
-  <si>
-    <t>A Minh là idol WGHN</t>
-  </si>
-  <si>
-    <t>A Minh ở 20 Võ Chí Công</t>
-  </si>
-  <si>
-    <t>Phó phòng CNTT</t>
-  </si>
-  <si>
-    <t>Anh Minh múa quạt thổi bay nóc nhà</t>
-  </si>
-  <si>
-    <t>A Minh quê Vũng Tào</t>
-  </si>
-  <si>
-    <t>Công ty dịch vụ golf</t>
-  </si>
-  <si>
-    <t>Là một hệ sinh thái golf</t>
-  </si>
-  <si>
-    <t>a minh ngồi cạnh sếp nhé</t>
-  </si>
-  <si>
-    <t>giới thiệu về a minh</t>
-  </si>
-  <si>
-    <t>a minh là một idol toptop với hàng triệu lượt follow</t>
-  </si>
-  <si>
-    <t>Air blade 160 nhé ae</t>
+    <t>Được sáng lập từ 2016, trải qua hơn 8 năm phát triển wGROUP đã trở thành Tập đoàn hàng đầu cung cấp các dịch vụ ngành Golf. Trong đó có các sản phẩm được cung cấp độc quyền do wGROUP phân phối như bảo hiểm HIO gói D, E, S với Tổng công ty bảo hiểm PVI; nhãn hàng thời trang Handee; hệ sinh thái đa nền tảng về Golf vNews và mạng xã hội chuyên biệt cho người chơi golf WGHN. Các dịch vụ khác của wGROUP luôn dẫn đầu thị trường golf như: Đặt sân, Tour golf, tổ chức sự kiện golf, các chuỗi sự kiện độc quyền do wGROUP phát triển.</t>
+  </si>
+  <si>
+    <t>giới thiệu về wgroup</t>
+  </si>
+  <si>
+    <t>wGROUP còn là đối tác tin cậy chăm sóc khách hàng chuyên biệt của hơn 400 tổ chức gồm Ngân hàng, Tập đoàn, Doanh nghiệp nước ngoài, Công ty trong nước, Hội golf địa phương và các Câu lạc bộ golf trên khắp cả nước.</t>
+  </si>
+  <si>
+    <t>Mục tiêu của wgroup</t>
+  </si>
+  <si>
+    <t>Tất cả đều thể hiện một sức mạnh mang tầm ảnh hưởng lớn tới cộng đồng golf và thị trường Ngành golf tại Việt Nam. Chúng tôi vẫn đang tiếp tục nỗ lực hàng ngày để hoàn thiện mình cũng như chinh phục các mục tiêu cao hơn trong tương lai. Hướng tới những trải nghiệm tuyệt vời nhất mang đến khách hàng và người sử dụng dịch vụ của wGROUP.</t>
+  </si>
+  <si>
+    <t>các thành tựu của wgroup đã đạt được</t>
+  </si>
+  <si>
+    <t>các thành tựu wgroup</t>
+  </si>
+  <si>
+    <t>thành tựu golf wgroup</t>
+  </si>
+  <si>
+    <t>có hơn 999+ các giải đấu đã hoàn thành</t>
+  </si>
+  <si>
+    <t>có hơn 400+ đối tác</t>
+  </si>
+  <si>
+    <t>có hơn 2650+ golfer tham gia các sự kiện mỗi năm</t>
+  </si>
+  <si>
+    <t>các sản phẩm dịch vụ đã đạt được của wgroup</t>
+  </si>
+  <si>
+    <t>wghn - Ứng dụng mạng xã hội dành cho golfer</t>
+  </si>
+  <si>
+    <t>vnews - trang tin tức dịch vụ golfer của wgroup</t>
+  </si>
+  <si>
+    <t>wtravel - nơi tìm kiếm và trải nghiệm các tour du lịch golf</t>
+  </si>
+  <si>
+    <t>wbooking - trung tâm chăm sóc khách hàng về golf</t>
+  </si>
+  <si>
+    <t>whio - trung tâm bảo hiểm, nơi tạo ra kịch tính trong các trận golf, với giá trị giải thưởng lên đến hàng chục triệu đồng</t>
+  </si>
+  <si>
+    <t>wshop - trung tâm hàng hóa, cung cấp sàn thương mại điện tử với đa dạng mặt hàng về golf</t>
+  </si>
+  <si>
+    <t>handee - thương hiệu thời trang nổi tiếng về golf</t>
+  </si>
+  <si>
+    <t>wghn</t>
+  </si>
+  <si>
+    <t>Là một ứng dụng siêu tiện ích, cung cấp đầy đủ các giải pháp với nền tảng công nghệ tiên tiến nhất thế giới cho phép người dùng tương tác với nhau trực tiếp thông qua: Fact, Feed, Chat, OTT Call, Video call, Livestream, News, TV, Shop Online, Loyal customers, v.v... cung cấp sản phẩm dịch vụ cho hơn 40.000 người dùng, toàn bộ nền tảng lõi được phát triển và sở hữu bởi WGHN là minh chứng rõ nét nhất cho công nghệ vượt trội mang tầm quốc tế của wGROUP.</t>
+  </si>
+  <si>
+    <t>vnews</t>
+  </si>
+  <si>
+    <t>Trang tin điện tử vnewstoday. com với hơn 2 triệu lượt truy cập mỗi năm, sản xuất hơn 15.000 tin bài cung cấp thông tin nóng hổi của cộng đồng golf Quốc tế và Việt Nam. Bên cạnh đó chúng tôi cá thể hóa người dùng bằng các chuyên trang chuyên biệt hơn xoay quanh người chơi golf gồm: - golfpose.com: Chuyên trang chuyên cung cấp các thông tin thời trang, phong cách, cách sống và những đúp hình đẹp của các tay golf. Sân chơi dành cho những người đẳng cấp, thời thượng và quan tâm đến làm đẹp kết hợp với golf tạo nên một sự hấp dẫn xoay quanh bộ môn thú vị này. - golferpost.com: Chuyên trang cung cấp các thông tin chuyên sâu về golf, các tin tức thời sự nóng hổi về các tổ chức golf lớn trên thế giới và Việt Nam, các thông tin chính thức từ các tổ chức này được phân tích và truyền tải khách quan đến người đọc cung cấp thêm nhiều thông tin thú vị và chính xác. - golfandcar.com: Chuyên trang dành riêng cho những tay golf có niềm đam mê mãnh liệt về xe hơi, nơi phân tích và review những mẫu xe độc lạ của dân chơi xe và mê golf. - ruleofgolf.com: Chuyên trang dành riêng cho thông tin về luật golf, luật golf sửa đổi, giải thích luật, tư vấn luật và các tình huống luật thông qua các Video được biên tập bài bản. - golfwithcoach.com: Hãy cùng chúng tôi nâng cao trình độ golf với các Huấn luyện viên hàng đầu của học viện Leadbetter Vietnam cũng như các huấn luyện viên có trình độ PGA quốc tế, với golfwithcoach bạn không cần phải mất quá nhiều thời gian để đắn đo xem ai sẽ là Huấn luyện viên của bạn mà tất cả đã có ở đây, một chạm. - inreviewgolf.com: Du lịch và golf luôn luôn song hành, và đó là lý do chuyên trang cung cấp đầy đủ nhất thông tin cho bạn đọc về trải nghiệm ở các sân golf trên toàn thế giới với những bài viết &amp; clip trực quan được biên tập bài bản, công phu cho bạn góc nhìn trực diện khi chuẩn bị cho một hành trình golf của mình. vnewsTV: Kênh truyền hình Online chuyên biệt về golf phát sóng 24/7 với những chuyên mục và tin tức thời sự nóng hổi cung cấp cho hơn 40.000 người xem hàng năm.</t>
+  </si>
+  <si>
+    <t>wtravel</t>
+  </si>
+  <si>
+    <t>Chúng tôi luôn tạo ra sự khác biệt và đó cũng chính là sự khác biệt ở ngay sản phẩm Tour golf của tập đoàn thông qua wTravel chúng tôi cung cấp các chặng bay khắp thế giới, đặt sân golf khắp năm châu và đưa quý khách hàng đặt chân đến những vùng đất rất ít người có điều kiện tới. Điều này khẳng định bởi các sản phẩm của chúng tôi đưa ra luôn nằm ở phân khúc cao cấp, các dịch vụ đi kèm luôn là những khách sạn tốt nhất, sân golf hàng đầu và tiện ích 5*. Chắc chắn sử dụng Tour golf của wTravel quý khách sẽ không bao giờ quên và cảm nhận được sự trân trọng của chúng tôi dành đến cho quý vị.</t>
+  </si>
+  <si>
+    <t>Trung tâm chăm sóc KH kết nối với tất cả các sân golf trong nước và quốc tế, hàng năm chúng tôi phục vụ hơn 2 triệu lượt khách hàng qua tổng đài cung cấp các dịch vụ: đặt sân golf, khách sạn, vé máy bay, xe di chuyển, bảo hiểm HIO, shopping online, v.v... chúng tôi vẫn tiếp tục tiến lên và hướng tới chăm sóc và làm hài lòng nhiều khách hàng hơn nữa. Tổng đài 02471001088</t>
+  </si>
+  <si>
+    <t>Với kinh nghiệm hơn 8 năm tổ chức sự kiện golf, hàng năm chúng tôi thực hiện hơn 600 sự kiện lớn nhỏ, trong đó các giải đấu quốc tế, chuyên nghiệp và nghiệp dư quốc gia hay các giải đấu có quy mô tổ chức lớn của các hội golf, tập đoàn, chúng tôi hướng tới sự bài bản trong tổ chức, công bằng trong thể thao và sự hài lòng của khách hàng. Ngoài ra chúng tôi còn cung cấp giải pháp tri ân khách hàng thân thiết của các doanh nghiệp thông qua các sự kiện golf giúp nâng tầm thương hiệu và gắn kết doanh nghiệp với khách hàng.</t>
+  </si>
+  <si>
+    <t>wbooking</t>
+  </si>
+  <si>
+    <t>Sở hữu sàn thương mại điện tử về golf, chúng tôi đang cung cấp hàng hóa chính hãng và là đối tác của hơn 100 nhãn hàng golf tại Việt Nam. Nền tảng sàn thương mại điện tử của chúng tôi còn được tích hợp trên các app của nhiều Ngân hàng lớn.</t>
+  </si>
+  <si>
+    <t>Chúng tôi cung cấp các giải pháp đặt dịch vụ cho các doanh nghiệp lớn và là đối tác của 8 Ngân hàng, hơn 20 Tổng công ty &amp; Tập đoàn, hơn 150 tổ chức là Hội golf, câu lạc bộ golf. Các sản phẩm của chúng tôi cung cấp gồm: Đặt sân golf toàn thế giới, đặt khách sạn, đặt vé máy bay, đặt bảo hiểm HIO, v.v... Hãy liên hệ ngay với chúng tôi để chăm sóc khách hàng chuyên biệt của bạn một cách hiệu quả hơn.</t>
+  </si>
+  <si>
+    <t>Handee là thương hiệu thời trang golf hàng đầu Việt Nam, được xây dựng từ 2003 trải qua hơn 20 năm phát triển đến nay Handee đã cung cấp ra thị trường hơn 10 triệu đơn vị hàng hoá phục vụ Ngành golf, có mặt tại 2 thị trường quốc tế là Nam Phi &amp; Úc. Handee đang hướng tới phát triển tại tất cả các thị trường golf tiềm năng trong các năm tới với mục tiêu "Vươn tầm thế giới" - made in Vietnam.</t>
+  </si>
+  <si>
+    <t>whio</t>
+  </si>
+  <si>
+    <t>Bảo hiểm HIO là một sản phẩm đặc thù do wGROUP và Tổng công ty bảo hiểm PVI hợp tác, chúng tôi cung cấp các sản phẩm đa dạng với các gói E, D, S, H. Mang đến cho người chơi, ban tổ chức giải nhiều lựa chọn và niềm vui, niềm hứng khởi trong các trận golf. Tính đến hết 2023 chúng tôi đã trao thưởng cho hơn 300 khách hàng với tổng số tiền trao thưởng hơn 40 tỷ VNĐ.</t>
+  </si>
+  <si>
+    <t>wshop</t>
+  </si>
+  <si>
+    <t>handee</t>
+  </si>
+  <si>
+    <t>wgroup ở đâu</t>
+  </si>
+  <si>
+    <t>Trụ sở: 20 Đường Võ Chí Công, Phường Nghĩa Đô, Quận Cầu Giấy, Hà Nội, Việt Nam</t>
+  </si>
+  <si>
+    <t>VP Đà Nẵng: 368 Trần Hưng Đạo, Phường An Hải Tây, Quận Sơn Trà, Đà Nẵng</t>
+  </si>
+  <si>
+    <t>VP HCM: 377 Tân Sơn, Phường 15, Quận Tân Bình, HCM</t>
+  </si>
+  <si>
+    <t>thông tin liên hệ wgroup</t>
+  </si>
+  <si>
+    <t>Số điện thoại: (+84) 78 833 3633</t>
+  </si>
+  <si>
+    <t>Email: support@wghn.net</t>
+  </si>
+  <si>
+    <t>văn hóa wgroup</t>
+  </si>
+  <si>
+    <t>wGroup là nơi tập trung những người có tư tưởng tiến bộ, hành động kỷ luật, tài năng và bản lĩnh. Chúng tôi làm việc với một tinh thần quyết liệt, hết mình, trách nhiệm vì những mục đích tốt đẹp, vì một đam mê đưa nền...</t>
+  </si>
+  <si>
+    <t>môi trường làm việc wgroup</t>
+  </si>
+  <si>
+    <t>wGroup đề cao yếu tố con người, hướng đến xây dựng môi trường làm việc thân thiện - chuyên nghiệp - hài hòa giữa đội ngũ nhân viên trẻ trung, năng động với đội ngũ lãnh đạo nhiệt tình, trách nhiệm, dám nghĩ dám làm.</t>
+  </si>
+  <si>
+    <t>tiềm năng wgroup</t>
+  </si>
+  <si>
+    <t>Với một thị trường Golf đầy tiềm năng và quy mô tập đoàn trải rộng 3 miền đất nước, wGroup hiện đang mở ra rất nhiều cơ hội nghề nghiệp dành cho tất cả mọi người với phương châm: Mỗi con người là một cá thể ...</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -569,8 +656,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -925,17 +1015,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.5703125" customWidth="1"/>
-    <col min="2" max="2" width="60.28515625" customWidth="1"/>
+    <col min="1" max="1" width="71" customWidth="1"/>
+    <col min="2" max="2" width="78.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -946,87 +1036,248 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="375" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>49</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/data_test.xlsx
+++ b/data/data_test.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\Chat_AI\v1\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A315B625-195B-40FA-ABBE-80E9C44C4C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0747247E-CB8D-4266-8810-CE96E2B174FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -67,27 +67,6 @@
     <t>các sản phẩm dịch vụ đã đạt được của wgroup</t>
   </si>
   <si>
-    <t>wghn - Ứng dụng mạng xã hội dành cho golfer</t>
-  </si>
-  <si>
-    <t>vnews - trang tin tức dịch vụ golfer của wgroup</t>
-  </si>
-  <si>
-    <t>wtravel - nơi tìm kiếm và trải nghiệm các tour du lịch golf</t>
-  </si>
-  <si>
-    <t>wbooking - trung tâm chăm sóc khách hàng về golf</t>
-  </si>
-  <si>
-    <t>whio - trung tâm bảo hiểm, nơi tạo ra kịch tính trong các trận golf, với giá trị giải thưởng lên đến hàng chục triệu đồng</t>
-  </si>
-  <si>
-    <t>wshop - trung tâm hàng hóa, cung cấp sàn thương mại điện tử với đa dạng mặt hàng về golf</t>
-  </si>
-  <si>
-    <t>handee - thương hiệu thời trang nổi tiếng về golf</t>
-  </si>
-  <si>
     <t>wghn</t>
   </si>
   <si>
@@ -173,6 +152,27 @@
   </si>
   <si>
     <t>Với một thị trường Golf đầy tiềm năng và quy mô tập đoàn trải rộng 3 miền đất nước, wGroup hiện đang mở ra rất nhiều cơ hội nghề nghiệp dành cho tất cả mọi người với phương châm: Mỗi con người là một cá thể ...</t>
+  </si>
+  <si>
+    <t>wbooking là trung tâm chăm sóc khách hàng về golf</t>
+  </si>
+  <si>
+    <t>wghn là ứng dụng mạng xã hội dành cho golfer</t>
+  </si>
+  <si>
+    <t>vnews là trang tin tức dịch vụ golfer của wgroup</t>
+  </si>
+  <si>
+    <t>wtravel là nơi tìm kiếm và trải nghiệm các tour du lịch golf</t>
+  </si>
+  <si>
+    <t>whio là trung tâm bảo hiểm, nơi tạo ra kịch tính trong các trận golf, với giá trị giải thưởng lên đến hàng chục triệu đồng</t>
+  </si>
+  <si>
+    <t>wshop là trung tâm hàng hóa, cung cấp sàn thương mại điện tử với đa dạng mặt hàng về golf</t>
+  </si>
+  <si>
+    <t>handee là thương hiệu thời trang nổi tiếng về golf</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1019,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1089,7 +1089,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1097,7 +1097,7 @@
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1105,7 +1105,7 @@
         <v>14</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1113,7 +1113,7 @@
         <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1121,7 +1121,7 @@
         <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -1129,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1137,143 +1137,143 @@
         <v>14</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="375" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="75" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
